--- a/data/trans_orig/P14B29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B29-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5ADB07B-F55F-46FC-85FD-49C6475DC5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3FB32B1-666E-461C-92C7-DD2503232DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F033D8EE-2B81-4207-893B-23E51D0C5338}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{233358CA-3031-4D66-A561-AFA865E0952E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="225">
   <si>
     <t>Población cuya osteoporosis le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -118,16 +118,13 @@
     <t>85,47%</t>
   </si>
   <si>
-    <t>55,78%</t>
+    <t>55,57%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>57,92%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -136,16 +133,13 @@
     <t>14,53%</t>
   </si>
   <si>
-    <t>44,22%</t>
+    <t>44,43%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
+    <t>42,08%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -154,37 +148,37 @@
     <t>79,63%</t>
   </si>
   <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>62,56%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -196,19 +190,19 @@
     <t>90,6%</t>
   </si>
   <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
   </si>
   <si>
     <t>75,53%</t>
@@ -217,67 +211,67 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>80,64%</t>
+    <t>80,31%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>83,52%</t>
   </si>
   <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>74,92%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>19,69%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -289,6 +283,9 @@
     <t>75,96%</t>
   </si>
   <si>
+    <t>25,47%</t>
+  </si>
+  <si>
     <t>80,7%</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
     <t>24,04%</t>
   </si>
   <si>
+    <t>74,53%</t>
+  </si>
+  <si>
     <t>19,3%</t>
   </si>
   <si>
@@ -310,19 +310,19 @@
     <t>57,61%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>50,57%</t>
@@ -331,19 +331,19 @@
     <t>42,39%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
   </si>
   <si>
     <t>45,59%</t>
@@ -352,16 +352,19 @@
     <t>65,88%</t>
   </si>
   <si>
-    <t>41,72%</t>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
+    <t>41,31%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
   </si>
   <si>
     <t>54,41%</t>
@@ -370,16 +373,19 @@
     <t>34,12%</t>
   </si>
   <si>
-    <t>58,28%</t>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>35,9%</t>
   </si>
   <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
   </si>
   <si>
     <t>73,36%</t>
@@ -391,19 +397,19 @@
     <t>68,13%</t>
   </si>
   <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>68,49%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>26,64%</t>
@@ -415,73 +421,73 @@
     <t>31,87%</t>
   </si>
   <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>31,51%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>75,04%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>42,28%</t>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
   </si>
   <si>
     <t>Población cuya osteoporosis le limita en 2023 (Tasa respuesta: 4,06%)</t>
@@ -499,7 +505,7 @@
     <t>86,06%</t>
   </si>
   <si>
-    <t>33,77%</t>
+    <t>32,86%</t>
   </si>
   <si>
     <t>31,44%</t>
@@ -508,7 +514,7 @@
     <t>13,94%</t>
   </si>
   <si>
-    <t>66,23%</t>
+    <t>67,14%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -517,19 +523,19 @@
     <t>78,97%</t>
   </si>
   <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
   </si>
   <si>
     <t>83,42%</t>
   </si>
   <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>61,26%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -538,175 +544,175 @@
     <t>21,03%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
   </si>
   <si>
     <t>16,58%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>38,14%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>38,74%</t>
   </si>
   <si>
     <t>88,96%</t>
   </si>
   <si>
-    <t>46,81%</t>
+    <t>46,96%</t>
   </si>
   <si>
     <t>67,93%</t>
   </si>
   <si>
-    <t>54,98%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
   </si>
   <si>
     <t>11,04%</t>
   </si>
   <si>
-    <t>53,19%</t>
+    <t>53,04%</t>
   </si>
   <si>
     <t>32,07%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
   </si>
   <si>
     <t>81,76%</t>
   </si>
   <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
   </si>
   <si>
     <t>81,32%</t>
   </si>
   <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
   </si>
   <si>
     <t>18,24%</t>
   </si>
   <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
   </si>
   <si>
     <t>18,68%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>25,75%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9CE0C8-38C3-433A-8D7D-F4F266144AF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65895AF8-B854-4C49-A6BF-57A7F6DBD8A1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1713,7 +1719,7 @@
         <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1731,7 +1737,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -1743,13 +1749,13 @@
         <v>2000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1758,13 +1764,13 @@
         <v>3007</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,7 +1826,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1835,7 +1841,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -1847,13 +1853,13 @@
         <v>27577</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -1862,13 +1868,13 @@
         <v>28559</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,13 +1904,13 @@
         <v>7055</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1913,13 +1919,13 @@
         <v>7055</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,7 +1981,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1987,7 +1993,7 @@
         <v>1071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -2002,13 +2008,13 @@
         <v>75414</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -2017,13 +2023,13 @@
         <v>76484</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,7 +2044,7 @@
         <v>3304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -2053,13 +2059,13 @@
         <v>7824</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2068,13 +2074,13 @@
         <v>11129</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,13 +2148,13 @@
         <v>2053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
         <v>110</v>
@@ -2157,13 +2163,13 @@
         <v>118497</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>112</v>
@@ -2172,13 +2178,13 @@
         <v>120551</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,10 +2199,10 @@
         <v>4312</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>16</v>
@@ -2208,13 +2214,13 @@
         <v>19482</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -2223,13 +2229,13 @@
         <v>23793</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,7 +2291,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2307,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57C7B23D-A577-4B60-B242-6120F4CBC93C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4938C0F-5B35-41AD-88A0-55A598A99727}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2324,7 +2330,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2708,7 +2714,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -2720,10 +2726,10 @@
         <v>2848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>15</v>
+        <v>81</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2735,10 +2741,10 @@
         <v>3769</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2771,13 +2777,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3003,7 +3009,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3036,7 +3042,7 @@
         <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3045,13 +3051,13 @@
         <v>16066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,7 +3072,7 @@
         <v>1194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
@@ -3081,13 +3087,13 @@
         <v>7803</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3096,13 +3102,13 @@
         <v>8997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3164,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3170,10 +3176,10 @@
         <v>4719</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3185,13 +3191,13 @@
         <v>60070</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -3200,13 +3206,13 @@
         <v>64789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3227,13 @@
         <v>1713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3236,13 +3242,13 @@
         <v>28093</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3251,13 +3257,13 @@
         <v>29806</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3331,13 @@
         <v>7740</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -3340,13 +3346,13 @@
         <v>82237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -3355,13 +3361,13 @@
         <v>89976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,13 +3382,13 @@
         <v>4032</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -3391,13 +3397,13 @@
         <v>39926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -3406,13 +3412,13 @@
         <v>43959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3474,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3490,7 +3496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233A5B01-4B87-4C0D-8D5F-E427C312ACE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4218C5FD-D96A-40F3-9C6A-00B9C05E1E01}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3507,7 +3513,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3632,7 +3638,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>18</v>
@@ -3644,7 +3650,7 @@
         <v>3366</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
@@ -3668,7 +3674,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -3695,7 +3701,7 @@
         <v>3666</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
@@ -3921,7 +3927,7 @@
         <v>1293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
@@ -3936,10 +3942,10 @@
         <v>3661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3972,7 +3978,7 @@
         <v>593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
@@ -3987,13 +3993,13 @@
         <v>593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,7 +4070,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>18</v>
@@ -4076,13 +4082,13 @@
         <v>8619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4091,13 +4097,13 @@
         <v>11552</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4124,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4127,13 +4133,13 @@
         <v>2296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4142,13 +4148,13 @@
         <v>2296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,7 +4210,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4216,10 +4222,10 @@
         <v>5062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -4231,13 +4237,13 @@
         <v>26052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -4246,13 +4252,13 @@
         <v>31114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4273,13 @@
         <v>628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4282,13 +4288,13 @@
         <v>12299</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4297,13 +4303,13 @@
         <v>12927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,7 +4365,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4371,13 +4377,13 @@
         <v>11650</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H19" s="7">
         <v>191</v>
@@ -4386,13 +4392,13 @@
         <v>99567</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -4401,13 +4407,13 @@
         <v>111218</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4428,13 @@
         <v>3341</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -4437,13 +4443,13 @@
         <v>22208</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
@@ -4452,13 +4458,13 @@
         <v>25548</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4526,13 +4532,13 @@
         <v>22012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H22" s="7">
         <v>254</v>
@@ -4541,13 +4547,13 @@
         <v>138898</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>282</v>
@@ -4556,13 +4562,13 @@
         <v>160910</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4583,13 @@
         <v>7636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H23" s="7">
         <v>66</v>
@@ -4592,13 +4598,13 @@
         <v>37395</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -4607,13 +4613,13 @@
         <v>45031</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,7 +4675,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B29-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B29-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3FB32B1-666E-461C-92C7-DD2503232DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67FF69B1-3BF7-40C0-A13E-441614A081C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{233358CA-3031-4D66-A561-AFA865E0952E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5604BDCD-B0DF-4739-A503-BB7304B4EAB4}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="227">
   <si>
     <t>Población cuya osteoporosis le limita en 2012 (Tasa respuesta: 2,03%)</t>
   </si>
@@ -118,13 +118,16 @@
     <t>85,47%</t>
   </si>
   <si>
-    <t>55,57%</t>
+    <t>55,99%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>57,92%</t>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -133,13 +136,16 @@
     <t>14,53%</t>
   </si>
   <si>
-    <t>44,43%</t>
+    <t>44,01%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>42,08%</t>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -148,37 +154,37 @@
     <t>79,63%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
   </si>
   <si>
     <t>80,19%</t>
   </si>
   <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>20,37%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -190,19 +196,19 @@
     <t>90,6%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
   </si>
   <si>
     <t>87,3%</t>
   </si>
   <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>75,53%</t>
@@ -211,34 +217,34 @@
     <t>9,4%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>12,7%</t>
   </si>
   <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>80,31%</t>
+    <t>79,97%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>83,52%</t>
@@ -247,28 +253,28 @@
     <t>74,92%</t>
   </si>
   <si>
-    <t>89,39%</t>
+    <t>89,33%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>19,69%</t>
+    <t>20,03%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
   </si>
   <si>
     <t>16,48%</t>
   </si>
   <si>
-    <t>10,61%</t>
+    <t>10,67%</t>
   </si>
   <si>
     <t>25,08%</t>
@@ -277,7 +283,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya osteoporosis le limita en 2015 (Tasa respuesta: 1,8%)</t>
+    <t>Población cuya osteoporosis le limita en 2016 (Tasa respuesta: 1,8%)</t>
   </si>
   <si>
     <t>75,96%</t>
@@ -310,19 +316,19 @@
     <t>57,61%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
   </si>
   <si>
     <t>55,71%</t>
   </si>
   <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>50,57%</t>
@@ -331,19 +337,19 @@
     <t>42,39%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
   </si>
   <si>
     <t>44,29%</t>
   </si>
   <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
   </si>
   <si>
     <t>45,59%</t>
@@ -352,19 +358,19 @@
     <t>65,88%</t>
   </si>
   <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>64,1%</t>
   </si>
   <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
   </si>
   <si>
     <t>54,41%</t>
@@ -373,121 +379,121 @@
     <t>34,12%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
   </si>
   <si>
     <t>35,9%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>58,69%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
   </si>
   <si>
     <t>73,36%</t>
   </si>
   <si>
-    <t>27,86%</t>
+    <t>27,66%</t>
   </si>
   <si>
     <t>68,13%</t>
   </si>
   <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>56,72%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>68,49%</t>
   </si>
   <si>
-    <t>58,14%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>26,64%</t>
   </si>
   <si>
-    <t>72,14%</t>
+    <t>72,34%</t>
   </si>
   <si>
     <t>31,87%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
   </si>
   <si>
     <t>31,51%</t>
   </si>
   <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
   </si>
   <si>
     <t>67,18%</t>
   </si>
   <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>32,82%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
   </si>
   <si>
     <t>Población cuya osteoporosis le limita en 2023 (Tasa respuesta: 4,06%)</t>
@@ -1124,7 +1130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65895AF8-B854-4C49-A6BF-57A7F6DBD8A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BF662B-539E-4A0C-86E6-4ED03EA44309}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1719,7 +1725,7 @@
         <v>28</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,7 +1743,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -1749,13 +1755,13 @@
         <v>2000</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -1764,13 +1770,13 @@
         <v>3007</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,7 +1832,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1841,7 +1847,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>18</v>
@@ -1853,13 +1859,13 @@
         <v>27577</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>27</v>
@@ -1868,13 +1874,13 @@
         <v>28559</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1904,13 +1910,13 @@
         <v>7055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1919,13 +1925,13 @@
         <v>7055</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1981,7 +1987,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1993,7 +1999,7 @@
         <v>1071</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -2008,13 +2014,13 @@
         <v>75414</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M19" s="7">
         <v>71</v>
@@ -2023,13 +2029,13 @@
         <v>76484</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,7 +2050,7 @@
         <v>3304</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -2059,13 +2065,13 @@
         <v>7824</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -2074,13 +2080,13 @@
         <v>11129</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2148,13 +2154,13 @@
         <v>2053</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
         <v>110</v>
@@ -2163,13 +2169,13 @@
         <v>118497</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>112</v>
@@ -2178,13 +2184,13 @@
         <v>120551</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2199,10 +2205,10 @@
         <v>4312</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>16</v>
@@ -2214,13 +2220,13 @@
         <v>19482</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -2229,13 +2235,13 @@
         <v>23793</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,7 +2297,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2313,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4938C0F-5B35-41AD-88A0-55A598A99727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{146F7DCA-B682-4635-BCFC-D0C805498106}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2330,7 +2336,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2714,7 +2720,7 @@
         <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -2726,10 +2732,10 @@
         <v>2848</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -2741,10 +2747,10 @@
         <v>3769</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2777,13 +2783,13 @@
         <v>902</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -2792,13 +2798,13 @@
         <v>902</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2872,7 @@
         <v>1100</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>15</v>
@@ -2881,13 +2887,13 @@
         <v>4252</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -2896,13 +2902,13 @@
         <v>5351</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2917,7 +2923,7 @@
         <v>1125</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
@@ -2932,13 +2938,13 @@
         <v>3128</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -2947,13 +2953,13 @@
         <v>4254</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3009,7 +3015,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3021,7 +3027,7 @@
         <v>1000</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
@@ -3036,13 +3042,13 @@
         <v>15066</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3051,13 +3057,13 @@
         <v>16066</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,7 +3078,7 @@
         <v>1194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
@@ -3087,13 +3093,13 @@
         <v>7803</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -3102,13 +3108,13 @@
         <v>8997</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3164,7 +3170,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3176,10 +3182,10 @@
         <v>4719</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3191,13 +3197,13 @@
         <v>60070</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>56</v>
@@ -3206,13 +3212,13 @@
         <v>64789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3227,13 +3233,13 @@
         <v>1713</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -3242,13 +3248,13 @@
         <v>28093</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -3257,13 +3263,13 @@
         <v>29806</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,13 +3337,13 @@
         <v>7740</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -3346,13 +3352,13 @@
         <v>82237</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>78</v>
@@ -3361,13 +3367,13 @@
         <v>89976</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3382,13 +3388,13 @@
         <v>4032</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -3397,13 +3403,13 @@
         <v>39926</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>40</v>
@@ -3412,13 +3418,13 @@
         <v>43959</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,7 +3480,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3496,7 +3502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4218C5FD-D96A-40F3-9C6A-00B9C05E1E01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6006F0-C7E4-4FFB-8261-6BB69125C44E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3513,7 +3519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3638,7 +3644,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>18</v>
@@ -3650,7 +3656,7 @@
         <v>3366</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
@@ -3674,7 +3680,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -3701,7 +3707,7 @@
         <v>3666</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
@@ -3927,7 +3933,7 @@
         <v>1293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
@@ -3942,10 +3948,10 @@
         <v>3661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -3978,7 +3984,7 @@
         <v>593</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
@@ -3993,13 +3999,13 @@
         <v>593</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4070,7 +4076,7 @@
         <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>18</v>
@@ -4082,13 +4088,13 @@
         <v>8619</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -4097,13 +4103,13 @@
         <v>11552</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4124,7 +4130,7 @@
         <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -4133,13 +4139,13 @@
         <v>2296</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>4</v>
@@ -4148,13 +4154,13 @@
         <v>2296</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4210,7 +4216,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4222,10 +4228,10 @@
         <v>5062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -4237,13 +4243,13 @@
         <v>26052</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -4252,13 +4258,13 @@
         <v>31114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,13 +4279,13 @@
         <v>628</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -4288,13 +4294,13 @@
         <v>12299</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M17" s="7">
         <v>20</v>
@@ -4303,13 +4309,13 @@
         <v>12927</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4371,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4377,13 +4383,13 @@
         <v>11650</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H19" s="7">
         <v>191</v>
@@ -4392,13 +4398,13 @@
         <v>99567</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M19" s="7">
         <v>208</v>
@@ -4407,13 +4413,13 @@
         <v>111218</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,13 +4434,13 @@
         <v>3341</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>42</v>
@@ -4443,13 +4449,13 @@
         <v>22208</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>47</v>
@@ -4458,13 +4464,13 @@
         <v>25548</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4538,13 @@
         <v>22012</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H22" s="7">
         <v>254</v>
@@ -4547,13 +4553,13 @@
         <v>138898</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>282</v>
@@ -4562,13 +4568,13 @@
         <v>160910</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4589,13 @@
         <v>7636</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H23" s="7">
         <v>66</v>
@@ -4598,13 +4604,13 @@
         <v>37395</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M23" s="7">
         <v>73</v>
@@ -4613,13 +4619,13 @@
         <v>45031</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,7 +4681,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
